--- a/F9Resource/src/Keywords/Automation Test Cases/Backup/ExchangeRateData.xlsx
+++ b/F9Resource/src/Keywords/Automation Test Cases/Backup/ExchangeRateData.xlsx
@@ -2,27 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="8" firstSheet="4" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="TestScenarios" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCases Login" sheetId="2" r:id="rId2"/>
-    <sheet name="TestCases Book1" sheetId="3" r:id="rId3"/>
-    <sheet name="TestCases Book2" sheetId="4" r:id="rId4"/>
-    <sheet name="TestCases Book3" sheetId="5" r:id="rId5"/>
-    <sheet name="TestCases Book4" sheetId="6" r:id="rId6"/>
-    <sheet name="TestCases Book5" sheetId="7" r:id="rId7"/>
-    <sheet name="TestCases Book6" sheetId="8" r:id="rId8"/>
-    <sheet name="TestCases Book7" sheetId="9" r:id="rId9"/>
+    <sheet name="TestScenarios" r:id="rId1" sheetId="1"/>
+    <sheet name="TestCases Login" r:id="rId2" sheetId="2"/>
+    <sheet name="TestCases Book1" r:id="rId3" sheetId="3"/>
+    <sheet name="TestCases Book2" r:id="rId4" sheetId="4"/>
+    <sheet name="TestCases Book3" r:id="rId5" sheetId="5"/>
+    <sheet name="TestCases Book4" r:id="rId6" sheetId="6"/>
+    <sheet name="TestCases Book5" r:id="rId7" sheetId="7"/>
+    <sheet name="TestCases Book6" r:id="rId8" sheetId="8"/>
+    <sheet name="TestCases Book7" r:id="rId9" sheetId="9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="96">
   <si>
     <t>TestScenario Id</t>
   </si>
@@ -252,9 +252,6 @@
     <t>07/10/2018</t>
   </si>
   <si>
-    <t>Enter Proper data</t>
-  </si>
-  <si>
     <t xml:space="preserve">Exchange Rate Update validation by missing mandatory fields </t>
   </si>
   <si>
@@ -307,12 +304,19 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>enter proper body data</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="167">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,72 +379,822 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -469,67 +1223,144 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="109">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="49" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="1"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="122" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="124" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="126" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="128" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="130" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="132" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="134" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="136" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="138" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="140" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="142" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="144" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="146" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="148" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="150" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="152" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="154" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="156" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="158" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="160" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="162" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="164" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -543,10 +1374,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -704,7 +1535,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -713,13 +1544,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -729,7 +1560,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -738,7 +1569,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -747,7 +1578,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -757,12 +1588,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -793,7 +1624,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -812,7 +1643,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -824,19 +1655,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="64.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="64.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -863,8 +1694,8 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>83</v>
+      <c r="D2" s="90" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,8 +1708,8 @@
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>83</v>
+      <c r="D3" s="92" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,8 +1722,8 @@
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>83</v>
+      <c r="D4" s="96" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -905,8 +1736,8 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>84</v>
+      <c r="D5" s="100" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -919,8 +1750,8 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>83</v>
+      <c r="D6" s="102" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,8 +1764,8 @@
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>84</v>
+      <c r="D7" s="104" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,37 +1778,41 @@
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="106" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="D9" t="s" s="108">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'TestCases Login'!A2" display="Login to the application"/>
-    <hyperlink ref="B3" location="'TestCases Login'!A3" display="Exchange Rate Menu selection"/>
-    <hyperlink ref="B4" location="'TestCases Book1'!A2" display="Exchange Rate Save with valid data"/>
-    <hyperlink ref="B5" location="'TestCases Book3'!A2" display="Exchange Rate validation by missing Mandatory fields "/>
-    <hyperlink ref="B6" location="'TestCases Book5'!A2" display="Exchange Rate Update with valid data"/>
-    <hyperlink ref="B7" location="'TestCases Book6'!A2" display="Exchange Rate Update by missing mandatory fields"/>
+    <hyperlink display="Login to the application" location="'TestCases Login'!A2" ref="B2"/>
+    <hyperlink display="Exchange Rate Menu selection" location="'TestCases Login'!A3" ref="B3"/>
+    <hyperlink display="Exchange Rate Save with valid data" location="'TestCases Book1'!A2" ref="B4"/>
+    <hyperlink display="Exchange Rate validation by missing Mandatory fields " location="'TestCases Book3'!A2" ref="B5"/>
+    <hyperlink display="Exchange Rate Update with valid data" location="'TestCases Book5'!A2" ref="B6"/>
+    <hyperlink display="Exchange Rate Update by missing mandatory fields" location="'TestCases Book6'!A2" ref="B7"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
@@ -985,16 +1820,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="88.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="88.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1029,8 +1864,8 @@
       <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>83</v>
+      <c r="D2" s="89" t="s">
+        <v>82</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>15</v>
@@ -1042,12 +1877,12 @@
         <v>16</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -1057,8 +1892,8 @@
       <c r="C3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>83</v>
+      <c r="D3" s="91" t="s">
+        <v>82</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>17</v>
@@ -1080,28 +1915,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="65.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="65.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1130,7 +1965,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1140,7 +1975,9 @@
       <c r="C2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="93" t="s">
+        <v>82</v>
+      </c>
       <c r="E2" s="13" t="s">
         <v>31</v>
       </c>
@@ -1269,28 +2106,28 @@
       <c r="N6" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="65.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="65.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1319,7 +2156,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1329,8 +2166,8 @@
       <c r="C2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>83</v>
+      <c r="D2" s="95" t="s">
+        <v>82</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>31</v>
@@ -1458,27 +2295,27 @@
       <c r="N6" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="65.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="50.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="65.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1506,7 +2343,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
@@ -1516,8 +2353,8 @@
       <c r="C2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>83</v>
+      <c r="D2" s="97" t="s">
+        <v>82</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>31</v>
@@ -1554,10 +2391,10 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1573,27 +2410,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="65.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="50.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="65.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1621,7 +2458,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
@@ -1631,8 +2468,8 @@
       <c r="C2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>84</v>
+      <c r="D2" s="99" t="s">
+        <v>83</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>31</v>
@@ -1668,8 +2505,8 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>76</v>
+      <c r="F3" t="s">
+        <v>94</v>
       </c>
       <c r="G3" t="s">
         <v>37</v>
@@ -1684,32 +2521,32 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="65.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="65.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1737,7 +2574,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>52</v>
       </c>
@@ -1747,8 +2584,8 @@
       <c r="C2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>83</v>
+      <c r="D2" s="101" t="s">
+        <v>82</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>31</v>
@@ -1785,10 +2622,10 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>69</v>
@@ -1854,27 +2691,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="65.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="65.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1902,18 +2739,18 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>84</v>
+      <c r="D2" s="103" t="s">
+        <v>83</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>31</v>
@@ -1950,10 +2787,10 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
@@ -1965,31 +2802,31 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="65.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="65.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2014,21 +2851,21 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>22</v>
@@ -2053,7 +2890,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -2064,17 +2901,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="13" t="s">
-        <v>92</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -2083,7 +2922,7 @@
       <c r="J4" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>